--- a/overzicht_incidenten/incidentenPerArtikel.xlsx
+++ b/overzicht_incidenten/incidentenPerArtikel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Count</t>
   </si>
@@ -205,7 +205,7 @@
     <t>EAN3171 ArcMap andere incidenten</t>
   </si>
   <si>
-    <t>EAN3182 Agiv Lara andere incidenten</t>
+    <t>EAN3182 Informatie Vlaanderen (AIV) - LARA andere incidenten</t>
   </si>
   <si>
     <t>EAN3242 Windows 7 andere incidenten</t>
@@ -238,13 +238,16 @@
     <t>EAN3555 Website Eandis andere incidenten</t>
   </si>
   <si>
+    <t>EAN3589 Geomobix andere incidenten</t>
+  </si>
+  <si>
     <t>EAN3664 Website Eandis - GON Stroomonderbrekingen</t>
   </si>
   <si>
     <t>EAN3676 Landesk - Mijn ICT-Tools - Incident na uitvoering van RFS aanvraag</t>
   </si>
   <si>
-    <t>EAN3692 KLIP andere incidenten</t>
+    <t>EAN3692 Informatie Vlaanderen (AIV) - KLIP andere incidenten</t>
   </si>
   <si>
     <t>EAN3693 Synductis Office 365 andere incidenten</t>
@@ -256,7 +259,7 @@
     <t>EAN3799 Nemesis PowerOn Viewer andere incidenten</t>
   </si>
   <si>
-    <t>EAN3842 GeoLis GeoLig GeoView Elont macro syntax error bij opstart</t>
+    <t>EAN3842 GeoLis GeoLig GeoView Elont GeoMobile macro syntax error bij opstart</t>
   </si>
   <si>
     <t>EAN3847 GeoLis GeoLig leiding Leiding toebehoren konden niet opgehaald worden</t>
@@ -304,10 +307,10 @@
     <t>EAN4460 Geoview / geolis / geolig / Elont melding: " MapStandalone stopped working "</t>
   </si>
   <si>
-    <t>EAN4469 Windows 10 / Windows 7 64-bit PC incidenten</t>
-  </si>
-  <si>
-    <t>EAN4500 Site Viewer Image / Orbit / mobile mapping error This application requires access to local storage</t>
+    <t>EAN4469 W10 / W7 64-bit MON PC incidenten</t>
+  </si>
+  <si>
+    <t>EAN4500 Informatie Vlaanderen (AIV) - Mobile Mapping foutmelding This application requires access to local storage</t>
   </si>
   <si>
     <t>EAN4503 Proactieve melding Operaties &amp; Monitoring</t>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>INF043 Infra-GIS / Infragis / Fluvius GIS - andere incidenten</t>
+  </si>
+  <si>
+    <t>INF051 KLIP Netaanleg Infrax (PS) - andere incidenten</t>
   </si>
   <si>
     <t>INF052 KLIP Planaanvraag afhandeling (GIS) Infrax - andere incidenten</t>
@@ -698,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +806,7 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1185,7 +1191,7 @@
         <v>119</v>
       </c>
       <c r="C44">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1317,7 +1323,7 @@
         <v>78</v>
       </c>
       <c r="C56">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1350,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1413,7 +1419,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>9.199999999999999</v>
@@ -1457,10 +1463,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1512,10 +1518,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1534,10 +1540,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1556,10 +1562,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1567,10 +1573,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1578,10 +1584,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1589,10 +1595,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1600,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1622,10 +1628,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1633,10 +1639,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1644,10 +1650,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1655,10 +1661,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1666,10 +1672,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1677,10 +1683,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1721,10 +1727,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1732,10 +1738,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1743,10 +1749,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1754,10 +1760,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1765,10 +1771,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1776,10 +1782,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1787,10 +1793,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1798,10 +1804,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1820,10 +1826,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1831,10 +1837,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1842,10 +1848,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1853,10 +1859,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1864,10 +1870,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1875,9 +1881,31 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C107">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>0.1</v>
       </c>
     </row>
